--- a/data/trans_bre/P23_DUKE_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P23_DUKE_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>-3,41</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,75</t>
+          <t>3,94</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,3</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,69%</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,73%</t>
+          <t>-3,0</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>36,58%</t>
+          <t>-3,98%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-3,86%</t>
+          <t>1,83%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4,79%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-2,46%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-1,4%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-3,42%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 4,65</t>
+          <t>-7,88; 1,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 5,43</t>
+          <t>-2,93; 6,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 12,69</t>
+          <t>-0,42; 8,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,5; 1,14</t>
+          <t>-7,11; 2,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-30,79; 35,4</t>
+          <t>-4,8; 2,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-17,95; 48,59</t>
+          <t>-6,86; 1,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 92,05</t>
+          <t>-8,97; 1,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 1,38</t>
+          <t>-3,43; 7,45</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-0,49; 11,2</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-7,79; 2,71</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-5,25; 2,42</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-7,79; 1,28</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,25</t>
+          <t>7,8</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,01</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>27,58%</t>
+          <t>4,37</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-11,34%</t>
+          <t>-4,66</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-2,74%</t>
+          <t>9,93%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>0,54%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-1,75%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1,79%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>5,05%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-5,17%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 10,2</t>
+          <t>2,28; 14,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 2,78</t>
+          <t>-4,0; 5,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 4,5</t>
+          <t>-5,87; 4,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 11,58</t>
+          <t>-4,5; 8,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-23,84; 84,15</t>
+          <t>-2,55; 14,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-36,2; 19,01</t>
+          <t>-11,93; 1,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-32,48; 31,92</t>
+          <t>2,67; 18,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 15,21</t>
+          <t>-4,49; 6,28</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-6,85; 5,25</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-5,2; 10,11</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-2,77; 18,51</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-12,97; 1,08</t>
         </is>
       </c>
     </row>
@@ -820,40 +932,60 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,33</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-5,74</t>
+          <t>2,89</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>1,37</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>23,25%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-29,5%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-6,04%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3,42%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-0,51%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1,53%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -868,40 +1000,60 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 12,51</t>
+          <t>-10,84; 19,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-19,08; 3,2</t>
+          <t>-5,76; 13,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,63; 9,02</t>
+          <t>-9,44; 8,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-8,16; 11,06</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-39,36; 122,15</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-66,63; 22,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-50,9; 69,37</t>
+          <t>-12,64; 28,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-6,44; 17,52</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-10,52; 10,87</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-8,69; 13,41</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,26</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>12,62%</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-4,85%</t>
+          <t>-3,42</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>14,95%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-2,65%</t>
+          <t>1,44%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1,59%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-0,31%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,05%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-3,88%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 5,28</t>
+          <t>-2,26; 5,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 2,62</t>
+          <t>-1,59; 4,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 6,68</t>
+          <t>-1,73; 4,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 1,63</t>
+          <t>-3,44; 3,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-12,14; 38,59</t>
+          <t>-3,27; 3,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,61; 19,04</t>
+          <t>-6,62; 0,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 44,18</t>
+          <t>-2,66; 6,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 1,91</t>
+          <t>-1,8; 5,05</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-2,01; 6,07</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-3,84; 3,93</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-3,6; 4,29</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-7,39; 0,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P23_DUKE_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P23_DUKE_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-3,41</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,53</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,94</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-2,19</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-1,25</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-3,0</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-3,98%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>1,83%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>4,79%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-2,46%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-1,4%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-3,42%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-3.448373690028683</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.557550980322286</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>3.836988279960674</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-2.18472636213336</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-1.254764237352357</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-3.039442565446093</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.04023491211636784</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.01862492314453106</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.04653405326855561</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.02458671139598466</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>-0.014028333424346</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>-0.03462388841302739</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-7,88; 1,59</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,93; 6,07</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,42; 8,85</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-7,11; 2,36</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-4,8; 2,2</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-6,86; 1,16</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-8,97; 1,9</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-3,43; 7,45</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-0,49; 11,2</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-7,79; 2,71</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-5,25; 2,42</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-7,79; 1,28</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-7.937162084249261</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-3.073011036614289</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.5132818492451983</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-7.17165238860244</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-4.804770458863695</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-7.044090332209817</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.09020176157643534</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.03576370512404792</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.006254979502878288</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.07880244346446087</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.05249795117894385</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.07813744692944258</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>2.081626559959231</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>6.078017214447129</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>8.961605932509602</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>2.287277672253882</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>2.196036993615729</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.8588464061554885</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.02455503026831837</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.0753423275025515</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.1130694494338175</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.02634568867734972</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.02417551148640232</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.009836512736584353</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>7,8</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,47</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-1,48</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,51</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>4,37</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-4,66</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>9,93%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0,54%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-1,75%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>1,79%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>5,05%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-5,17%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>2,28; 14,11</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-4,0; 5,31</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-5,87; 4,24</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-4,5; 8,03</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-2,55; 14,6</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-11,93; 1,07</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>2,67; 18,96</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-4,49; 6,28</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-6,85; 5,25</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-5,2; 10,11</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-2,77; 18,51</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-12,97; 1,08</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>7.773042458822054</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.7660729534693433</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-1.745722745047873</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>1.508412334629894</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>4.366317239171469</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-4.237807251687331</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.0995288430535282</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.008863415974309256</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.02067684964369348</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.01790524803638996</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.05049480376112275</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>-0.0470571010546027</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,44</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,89</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,43</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,37</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>1,85%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>3,42%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-0,51%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>1,53%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>1.744904341373639</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-3.722829218635044</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-6.257418604445294</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-4.741676337682224</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-2.545228992087515</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-11.30840725676018</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.021010415201811</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.04159343216816776</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.07278261001734655</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.05341105188306377</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.02765763170599445</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.1229475198559037</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-10,84; 19,06</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-5,76; 13,51</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-9,44; 8,75</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-8,16; 11,06</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-12,64; 28,97</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-6,44; 17,52</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-10,52; 10,87</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-8,69; 13,41</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>14.72666833692469</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>5.642047778844721</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>4.062737729180311</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>7.895303729968635</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>14.59834262190054</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>1.562710724346621</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.2023086641114437</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.06759821922022284</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.05074270258277169</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.09852683478341008</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>0.1851083784909373</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>0.01669881993763766</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,245 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,67</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,22</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,33</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-0,27</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,05</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-3,42</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>2,04%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>1,44%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>1,59%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-0,31%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>0,05%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-3,88%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-0.02310308631272573</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2.061797195964321</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.4416380092275851</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>1.435827538445189</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>-0.0002939243569538163</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.02409809572150227</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.005172777308561174</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.01594368006189173</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,26; 5,42</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,59; 4,19</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,73; 4,93</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-3,44; 3,33</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-3,27; 3,75</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-6,62; 0,64</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-2,66; 6,88</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-1,8; 5,05</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-2,01; 6,07</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-3,84; 3,93</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-3,6; 4,29</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-7,39; 0,74</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-12.47314574604915</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-6.419185927071336</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-9.486692242545248</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-7.768917859264318</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.1465101431984029</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.07015713345098505</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.1042399708931669</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.08282015225849475</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>16.8861878227633</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>11.86855200440166</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>8.728985713296709</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>11.35099030075639</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>0.2567053561548199</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.1510180062737541</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.1088383637602935</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.1380294490491565</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>1.423185923828163</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.248051437924813</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.187942643417628</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.2537871304381878</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.0478237819756977</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-3.355185843893926</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.01738707491085958</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.0146844766193538</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.01421020298345199</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.002912536223489581</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.0005390601950962594</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>-0.03797951888299046</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-2.6402480287787</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-1.50973947752575</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-2.065547973252979</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-3.389289633811313</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-3.27069132758229</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-6.457569616634832</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.03102609359638328</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.01717420944774759</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.02401319961379571</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.03814415208655734</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.03603359878421924</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.07244829489478097</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>5.378702912396114</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>4.210449968674</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>4.767229180436639</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>3.354260032894112</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>3.752810200563979</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.7759163220293767</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.06855513914625828</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.05058975426587574</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.05819626503431247</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.03952952729684197</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.04285562599350462</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.008466384316950201</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1177,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
